--- a/20260130 pet 時間測定/個人目標-スキルチェック.xlsx
+++ b/20260130 pet 時間測定/個人目標-スキルチェック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n_yamamoto\OneDrive - 株式会社テクノコア\計画ミーティング\個人目標 - スキルチェック\スキルチェック_20240924\問題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyama\Desktop\スキルチェック\skillcheck\20260130 pet 時間測定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89788B-921F-41B0-B9F8-076D32BD38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527BC18-785A-463E-84FD-654C1ED35ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38303" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -1589,6 +1589,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1598,14 +1607,77 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1624,78 +1696,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7939,24 +7939,24 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.1328125" style="1"/>
+    <col min="1" max="16384" width="3.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7964,12 +7964,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
@@ -8017,12 +8017,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -8031,22 +8031,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="D16" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -8055,22 +8055,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="D20" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -8078,17 +8078,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D23" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
@@ -8096,12 +8096,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
         <v>64</v>
       </c>
@@ -8109,12 +8109,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="20" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
@@ -8122,12 +8122,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="19.899999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
@@ -8185,93 +8185,93 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="3" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="35" t="s">
+    <row r="5" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="29" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
-    </row>
-    <row r="6" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="35" t="s">
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="29" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="7" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="35" t="s">
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="29" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
-    </row>
-    <row r="9" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
+    </row>
+    <row r="9" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="X9" s="6"/>
     </row>
-    <row r="10" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D11" s="32" t="s">
         <v>20</v>
       </c>
@@ -8330,206 +8330,206 @@
       <c r="AP11" s="33"/>
       <c r="AQ11" s="34"/>
     </row>
-    <row r="12" spans="1:43" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="23" t="s">
+    <row r="12" spans="1:43" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="23" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="23" t="s">
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="25"/>
-    </row>
-    <row r="13" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="26" t="s">
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="31"/>
+    </row>
+    <row r="13" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="26" t="s">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="26" t="s">
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="28"/>
-    </row>
-    <row r="14" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="13"/>
+    </row>
+    <row r="14" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="11" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="14" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="16"/>
-    </row>
-    <row r="15" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="17" t="s">
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="25"/>
+    </row>
+    <row r="15" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="17" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="20" t="s">
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="22"/>
-    </row>
-    <row r="16" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="46"/>
+    </row>
+    <row r="16" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="X17" s="6"/>
     </row>
-    <row r="18" spans="3:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="32" t="s">
         <v>20</v>
       </c>
@@ -8588,105 +8588,105 @@
       <c r="AP18" s="33"/>
       <c r="AQ18" s="34"/>
     </row>
-    <row r="19" spans="3:43" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="23" t="s">
+    <row r="19" spans="3:43" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23" t="s">
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="23" t="s">
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="23" t="s">
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="25"/>
-    </row>
-    <row r="20" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="26" t="s">
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="31"/>
+    </row>
+    <row r="20" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="26" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="26" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="28"/>
-    </row>
-    <row r="22" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="13"/>
+    </row>
+    <row r="22" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="X22" s="6"/>
     </row>
-    <row r="23" spans="3:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D23" s="32" t="s">
         <v>20</v>
       </c>
@@ -8745,424 +8745,406 @@
       <c r="AP23" s="33"/>
       <c r="AQ23" s="34"/>
     </row>
-    <row r="24" spans="3:43" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="23" t="s">
+    <row r="24" spans="3:43" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="23" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="23" t="s">
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="23" t="s">
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="25"/>
-    </row>
-    <row r="25" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="26" t="s">
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="31"/>
+    </row>
+    <row r="25" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="26" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="26" t="s">
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="28"/>
-    </row>
-    <row r="26" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="11" t="s">
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="13"/>
+    </row>
+    <row r="26" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="11" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14" t="s">
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="11" t="s">
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="13"/>
-    </row>
-    <row r="27" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="46"/>
-    </row>
-    <row r="28" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="26" t="s">
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="16"/>
+    </row>
+    <row r="27" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="19"/>
+    </row>
+    <row r="28" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="26" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="26" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="27"/>
-      <c r="AQ28" s="28"/>
-    </row>
-    <row r="29" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="11" t="s">
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="13"/>
+    </row>
+    <row r="29" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14" t="s">
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="11" t="s">
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="13"/>
-    </row>
-    <row r="30" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="11" t="s">
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="16"/>
+    </row>
+    <row r="30" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="11" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="14" t="s">
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="15"/>
-      <c r="AO30" s="15"/>
-      <c r="AP30" s="15"/>
-      <c r="AQ30" s="16"/>
-    </row>
-    <row r="31" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="38" t="s">
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="25"/>
+    </row>
+    <row r="31" spans="3:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="41" t="s">
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="43"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="R28:X28"/>
-    <mergeCell ref="Y28:AQ28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="R25:X25"/>
-    <mergeCell ref="Y25:AQ25"/>
-    <mergeCell ref="D26:J27"/>
-    <mergeCell ref="K26:Q27"/>
-    <mergeCell ref="R26:X27"/>
-    <mergeCell ref="Y26:AQ27"/>
-    <mergeCell ref="D30:J31"/>
-    <mergeCell ref="K30:Q31"/>
-    <mergeCell ref="R30:X31"/>
-    <mergeCell ref="Y30:AQ31"/>
-    <mergeCell ref="Y29:AQ29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="R29:X29"/>
-    <mergeCell ref="Y20:AQ20"/>
-    <mergeCell ref="Y24:AQ24"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="R23:X23"/>
-    <mergeCell ref="Y23:AQ23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="R18:X18"/>
-    <mergeCell ref="R19:X19"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="R20:X20"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="R24:X24"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:X14"/>
+    <mergeCell ref="Y14:AQ14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="Y15:AQ15"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="R12:X12"/>
+    <mergeCell ref="Y12:AQ12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="R13:X13"/>
+    <mergeCell ref="Y13:AQ13"/>
     <mergeCell ref="Y19:AQ19"/>
     <mergeCell ref="J5:P5"/>
     <mergeCell ref="J6:P6"/>
@@ -9179,22 +9161,40 @@
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="R11:X11"/>
     <mergeCell ref="Y11:AQ11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="R12:X12"/>
-    <mergeCell ref="Y12:AQ12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="R13:X13"/>
-    <mergeCell ref="Y13:AQ13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R14:X14"/>
-    <mergeCell ref="Y14:AQ14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="R15:X15"/>
-    <mergeCell ref="Y15:AQ15"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="R18:X18"/>
+    <mergeCell ref="R19:X19"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:X20"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="R24:X24"/>
+    <mergeCell ref="Y20:AQ20"/>
+    <mergeCell ref="Y24:AQ24"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="Y23:AQ23"/>
+    <mergeCell ref="D30:J31"/>
+    <mergeCell ref="K30:Q31"/>
+    <mergeCell ref="R30:X31"/>
+    <mergeCell ref="Y30:AQ31"/>
+    <mergeCell ref="Y29:AQ29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="R29:X29"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="R28:X28"/>
+    <mergeCell ref="Y28:AQ28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="Y25:AQ25"/>
+    <mergeCell ref="D26:J27"/>
+    <mergeCell ref="K26:Q27"/>
+    <mergeCell ref="R26:X27"/>
+    <mergeCell ref="Y26:AQ27"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -9215,257 +9215,257 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="3" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4"/>
     </row>
-    <row r="5" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
     </row>
-    <row r="13" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>93</v>
       </c>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>112</v>
       </c>
@@ -9493,17 +9493,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.1328125" style="1"/>
+    <col min="1" max="16384" width="3.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>167</v>
       </c>
@@ -9511,12 +9511,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9524,17 +9524,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
@@ -9542,32 +9542,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>1</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>3</v>
       </c>
@@ -9591,17 +9591,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>3</v>
       </c>
@@ -9609,18 +9609,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>3</v>
       </c>
@@ -9628,13 +9628,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>3</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
         <v>55</v>
@@ -9671,19 +9671,19 @@
   </sheetPr>
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.1328125" style="1"/>
+    <col min="1" max="16384" width="3.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -9699,12 +9699,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>135</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
@@ -9720,17 +9720,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D17" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -9746,17 +9746,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D36" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D38" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>138</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>144</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>1</v>
       </c>
@@ -9796,17 +9796,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D97" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D98" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>147</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
         <v>1</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118" s="1" t="s">
         <v>1</v>
       </c>
@@ -9830,22 +9830,22 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D119" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D134" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D135" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D136" s="1" t="s">
         <v>1</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
         <v>153</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C144" s="1" t="s">
         <v>1</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C155" s="1" t="s">
         <v>1</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D156" s="10" t="s">
         <v>157</v>
       </c>
